--- a/src/test/resources/Data/Data.xlsx
+++ b/src/test/resources/Data/Data.xlsx
@@ -1,61 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fer\IdeaProjects\serenityScreenplay\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TulFer\Documents\Prueba Choucair\SerenityScreenplay\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A268BA-7DCA-4573-84FE-2A00FBF09FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9BEDE789-6A23-4685-81CE-552ABBFC731B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Usuario</t>
   </si>
   <si>
+    <t>Contrasena</t>
+  </si>
+  <si>
+    <t>NombreProducto</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>serenity</t>
   </si>
   <si>
-    <t>Contraseña</t>
+    <t>vaso</t>
+  </si>
+  <si>
+    <t>plato</t>
+  </si>
+  <si>
+    <t>cuchara</t>
+  </si>
+  <si>
+    <t>pocillo</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,9 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,7 +201,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -130,7 +213,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -177,23 +260,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -229,23 +295,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,32 +446,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C60A8F8-1DBA-457D-ACD3-42B2809DCCFB}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
         <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>